--- a/APP WEB/Facturas.xlsx
+++ b/APP WEB/Facturas.xlsx
@@ -1,86 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesaranderson/Documents/NuevoAPP/APP_WEB_MAC/APP WEB/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{850C1664-CBDB-BA40-8D9D-0B2B0952036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" xr2:uid="{8FE958BF-199C-A540-94F6-9B73696EE52E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Archivo</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>Base Imponible</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -98,23 +53,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -434,36 +455,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAB8A2C-29A7-AE40-9A00-AE7877ECDC8A}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col width="11.83203125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="10.5" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="17.6640625" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="4.83203125" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customHeight="1" s="4">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Archivo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Número</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Importe</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Base Imponible</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>IVA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JUNIO_24.jpg</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>91634</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JUNIO_24.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>91634</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4,50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/APP WEB/Facturas.xlsx
+++ b/APP WEB/Facturas.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -565,6 +565,70 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JUNIO_11.jpg</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26/06/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30449</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26,75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24,32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JUNIO_11.jpg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26/06/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30449</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25,8324</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24,32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APP WEB/Facturas.xlsx
+++ b/APP WEB/Facturas.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -629,6 +629,258 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SKM_C335124092312180_0026.jpg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12/07/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>200,00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>165,29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SKM_C335124092312180_0033.jpg</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18/07/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11307</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>170,01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>140,50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SKM_C335124092312180_0032.jpg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13536</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>123,97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SKM_C335124092312180_0032.jpg</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3.536</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>123,97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SKM_C335124092312180_0030.jpg</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12980</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>200,00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>165,29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SKM_C335124092312180_0031.jpg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21/08/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6938R</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>123,97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SKM_C335124092312180_0028.jpg</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>29/07/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9838R</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47,06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38,89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9218</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100,21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12,2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APP WEB/Facturas.xlsx
+++ b/APP WEB/Facturas.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -53,12 +53,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -460,23 +459,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col width="11.83203125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="10.5" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="29.625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.5" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="9.5" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="4.83203125" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="9.375" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="17.625" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="4.875" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="4">
+    <row r="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Archivo</t>
@@ -492,17 +491,17 @@
           <t>Número</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Importe</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Base Imponible</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>IVA</t>
         </is>
@@ -854,7 +853,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>01/01/2024</t>
@@ -876,6 +874,2212 @@
         </is>
       </c>
       <c r="F13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SKM_C335124093013330_0017.jpg</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4759</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>87,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>240000314519-8-2024.jpg</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>19/08/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3145</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>139,15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>115,00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>240000332028-8-2024.jpg</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3320</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>59,17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>48,90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>240000332128-8-2024.jpg</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>54,91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>45,38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A-V2024-3363093.jpg</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16/07/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>63093</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>57,55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>47,56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A-V2024-3886130.jpg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>86130</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25,09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12,23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_1.jpg</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25/09/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>21431</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>45,53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>37,63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_2.jpg</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23/09/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18440</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12,40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10,25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_3.jpg</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>23/09/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>18425</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_4.jpg</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>18/09/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>51393</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>47,65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39,38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_5.jpg</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2538</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_6.jpg</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>04/09/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1582</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27,35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22,60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_7.jpg</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>03/09/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1088</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6,60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_8.jpg</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>03/09/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1096</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11,74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9,30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_9.jpg</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>30/08/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>49806</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2,20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_10.jpg</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>49635</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22,83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>18,87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_11.jpg</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>95602</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>52,83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>43,66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_12.jpg</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>95639</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_13.jpg</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>48774</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-2,27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_14.jpg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>27/08/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>49069</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>62,80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>51,90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SKM_C335124100414000_15.jpg</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>26/08/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>93175</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>38,40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>31,74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_1.jpg</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>26/08/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>93193</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20,75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>17,15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_2.jpg</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>23/08/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>91225</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>26,41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21,83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_3.jpg</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>22/08/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5,50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_4.jpg</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20/08/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>87858</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_5.jpg</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>19/08/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>86302</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>101,00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83,47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_6.jpg</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>13/08/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>81971</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>18,18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_7.jpg</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>13/08/2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>81981</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_8.jpg</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>12/08/2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>81314</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19,85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16,40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_9.jpg</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>12/08/2024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>81333</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14,42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>11,92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_10.jpg</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>09/08/2024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>79791</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>52,50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43,39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_11.jpg</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>08/08/2024</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>78428</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>162.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>134.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_12.jpg</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>76018</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_13.jpg</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>05/08/2024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>74388</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>30,39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25,12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_14.jpg</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>02/08/2024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>72343</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_15.jpg</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>71016</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>147,60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>121,98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_16.jpg</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>71035</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>32,01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26,45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_17.jpg</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>31/07/2024</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>70324</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>74,80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>61,82</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_18.jpg</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>31/07/2024</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>69521</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>24,34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20,12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_19.jpg</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>68292</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>17,30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14,30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_20.jpg</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>25/07/2024</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>64729</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_21.jpg</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>61136</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>23,70</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>19,59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_22.jpg</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>18/07/2024</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>56990</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>63,40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>52,40</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_23.jpg</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>17/07/2024</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>56503</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>76,28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>63,04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_24.jpg</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>15/07/2024</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>53319</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>15,95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>13,18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_25.jpg</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>04/07/2024</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>43156</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_26.jpg</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>03/07/2024</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>41759</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_27.jpg</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>03/07/2024</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>39335</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>55,32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>45,72</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_28.jpg</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>40213</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>48,01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>39,68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_29.jpg</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>305M</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CamScanner_07-10-2024_09.07_30.jpg</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>41178</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>45,31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>37,45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0014.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>05/07/2024</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>80,16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>66,25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0013.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>05/07/2024</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>87,89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>72,63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0012.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>10/07/2024</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>77,59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>64,13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0011.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>14/07/2024</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>85,29</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>70,49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0010.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>18/07/2024</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>134,45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>111,11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0009.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>23/07/2024</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1628</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>86,48</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>71,47</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0008.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>03/08/2024</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>85,23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70,44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0007.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>09/08/2024</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1750</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>84,75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>70,04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0006.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>18/08/2024</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>84,66</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>69,97</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0005.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>23/08/2024</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>126,01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>104,14</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0004.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>11/09/2024</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>78,85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>65,17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0003.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>13/09/2024</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>75,29</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>62,22</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0002.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>25/09/2024</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1256</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>118,86</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98,23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>21679</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>64,76</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>78,36</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>19/08/2024</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>21648</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10,39</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>49,48</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>21479</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>177,19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>146,44</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>05/08/2024</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>21471</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>58,47</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>48,32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>21289</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>19,49</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>16,11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>21269</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>39,78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>32,88</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>21</t>
         </is>

--- a/APP WEB/Facturas.xlsx
+++ b/APP WEB/Facturas.xlsx
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -602,8 +602,6 @@
           <t>1794</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>69,97</t>
@@ -636,8 +634,6 @@
           <t>1829</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>104,14</t>
@@ -658,6 +654,890 @@
           <t>SKM_C335124100709170_0005.jpg</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>105,00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>115,50</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20/08/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>579,07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>700,67</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4807,31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5816,85</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>30/08/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>455,13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>550,71</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>31/07/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11997</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82,82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>100,21</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>40620</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>334,71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>405,00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>25/08/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>175,77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>212,68</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>09/08/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1777</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24,19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>29,27</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1668</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33,84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>40,95</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>11/09/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>24265</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>500,00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>605,00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>23074</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>42,84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>51,84</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>731,73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>885,39</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22/09/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>47566</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32,24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>39,00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>19/08/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70,00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>84,70</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08/03/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>825,00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>998,25</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19/09/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3899</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6,31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>7,64</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>31/08/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>46286</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>297,27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>359,70</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>03/07/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>213,45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>258,27</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>13/09/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>370,00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>447,70</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>21/08/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2507</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10,37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>12,55</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>18/07/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28,50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>34,49</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>45,79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>55,41</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22/08/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>52578</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>640,00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>774,40</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22/08/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>52579</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>13,17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>15,94</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/08/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>52480</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>17,61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>21,31</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>31/07/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>52374</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>11,80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>14,28</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/APP WEB/Facturas.xlsx
+++ b/APP WEB/Facturas.xlsx
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -671,7 +671,6 @@
           <t>808</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>105,00</t>
@@ -687,7 +686,6 @@
           <t>115,50</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -705,7 +703,6 @@
           <t>953</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>579,07</t>
@@ -721,7 +718,6 @@
           <t>700,67</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -739,7 +735,6 @@
           <t>953</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>4807,31</t>
@@ -755,7 +750,6 @@
           <t>5816,85</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -773,7 +767,6 @@
           <t>234</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>455,13</t>
@@ -789,7 +782,6 @@
           <t>550,71</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -807,7 +799,6 @@
           <t>234</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>82,82</t>
@@ -823,7 +814,6 @@
           <t>100,21</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -841,7 +831,6 @@
           <t>622</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>334,71</t>
@@ -857,7 +846,6 @@
           <t>405,00</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -875,7 +863,6 @@
           <t>983</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>175,77</t>
@@ -891,7 +878,6 @@
           <t>212,68</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -909,7 +895,6 @@
           <t>290</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>24,19</t>
@@ -925,7 +910,6 @@
           <t>29,27</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -943,7 +927,6 @@
           <t>290</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>33,84</t>
@@ -959,7 +942,6 @@
           <t>40,95</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -977,7 +959,6 @@
           <t>179</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>500,00</t>
@@ -993,7 +974,6 @@
           <t>605,00</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1011,7 +991,6 @@
           <t>459</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>42,84</t>
@@ -1027,7 +1006,6 @@
           <t>51,84</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1045,7 +1023,6 @@
           <t>430</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>731,73</t>
@@ -1061,7 +1038,6 @@
           <t>885,39</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1079,7 +1055,6 @@
           <t>516</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>32,24</t>
@@ -1095,7 +1070,6 @@
           <t>39,00</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1113,7 +1087,6 @@
           <t>206</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>70,00</t>
@@ -1129,7 +1102,6 @@
           <t>84,70</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1147,7 +1119,6 @@
           <t>284</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>825,00</t>
@@ -1163,7 +1134,6 @@
           <t>998,25</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1181,7 +1151,6 @@
           <t>111</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>6,31</t>
@@ -1197,7 +1166,6 @@
           <t>7,64</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1215,7 +1183,6 @@
           <t>357</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>297,27</t>
@@ -1231,7 +1198,6 @@
           <t>359,70</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1249,7 +1215,6 @@
           <t>941</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>213,45</t>
@@ -1265,7 +1230,6 @@
           <t>258,27</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1283,7 +1247,6 @@
           <t>803</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>370,00</t>
@@ -1299,7 +1262,6 @@
           <t>447,70</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1317,7 +1279,6 @@
           <t>783</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>10,37</t>
@@ -1333,7 +1294,6 @@
           <t>12,55</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1351,7 +1311,6 @@
           <t>783</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>28,50</t>
@@ -1367,7 +1326,6 @@
           <t>34,49</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1385,7 +1343,6 @@
           <t>783</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>45,79</t>
@@ -1401,7 +1358,6 @@
           <t>55,41</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1419,7 +1375,6 @@
           <t>861</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>640,00</t>
@@ -1435,7 +1390,6 @@
           <t>774,40</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1453,7 +1407,6 @@
           <t>861</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>13,17</t>
@@ -1469,7 +1422,6 @@
           <t>15,94</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1487,7 +1439,6 @@
           <t>861</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>17,61</t>
@@ -1503,7 +1454,6 @@
           <t>21,31</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1521,7 +1471,6 @@
           <t>861</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>11,80</t>
@@ -1537,7 +1486,54 @@
           <t>14,28</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>18/07/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>111,11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>134,45</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>SKM_C335124100709170_0010.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04/04/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
